--- a/public/imports/invoices.xlsx
+++ b/public/imports/invoices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Crosstab" sheetId="1" r:id="rId1"/>
@@ -1476,7 +1476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3525,5 +3527,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>